--- a/examples/sbtab/hynne.xlsx
+++ b/examples/sbtab/hynne.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="543">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:30:21'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' document='BIOMD0000000061' tableFormat='row'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-09 23:57:44'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-09 23:57:44' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' document='BIOMD0000000061' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-09 23:57:44' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6663,7 +6663,7 @@
     <t>GlcX0</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6678,7 +6678,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6699,7 +6699,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6714,7 +6714,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6744,7 +6744,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6780,7 +6780,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6792,7 +6792,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6801,16 +6801,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' document='BIOMD0000000061' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-09 23:57:45' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7389,7 +7389,7 @@
     <t>k24r</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7407,7 +7407,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7446,7 +7446,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' document='BIOMD0000000061' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-09 23:57:45' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7842,7 +7842,7 @@
     <t>2.7.4.3</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7854,7 +7854,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7866,7 +7866,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7881,13 +7881,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7896,13 +7896,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7911,19 +7911,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7944,7 +7944,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab/hynne.xlsx
+++ b/examples/sbtab/hynne.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="543">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-09 23:57:44'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-09 23:57:44' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-26 21:08:00'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-04-26 21:08:00' objTablesVersion='0.0.9' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-09 23:57:44' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-04-26 21:08:01' objTablesVersion='0.0.9' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6663,7 +6663,7 @@
     <t>GlcX0</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6678,7 +6678,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6699,7 +6699,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6714,7 +6714,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6744,7 +6744,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6780,7 +6780,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-09 23:57:44' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6792,7 +6792,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6801,16 +6801,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-09 23:57:45' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-04-26 21:08:01' objTablesVersion='0.0.9' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7389,7 +7389,7 @@
     <t>k24r</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7407,7 +7407,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7446,7 +7446,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-09 23:57:45' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-04-26 21:08:01' objTablesVersion='0.0.9' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7842,7 +7842,7 @@
     <t>2.7.4.3</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7854,7 +7854,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7866,13 +7866,13 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!From</t>
-  </si>
-  <si>
-    <t>!To</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!FromObject</t>
+  </si>
+  <si>
+    <t>!ToObject</t>
   </si>
   <si>
     <t>!IsSymmetric</t>
@@ -7881,13 +7881,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7896,13 +7896,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7911,19 +7911,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7944,7 +7944,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 23:57:45' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-04-26 21:08:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -18656,10 +18656,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Type of quantitative relation&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Type of quantitative relation&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsSymmetric" error="Flag indicating non-symmetric relations&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsSymmetric" prompt="Flag indicating non-symmetric relations&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="I2:I3">
@@ -18731,10 +18731,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be an integer." promptTitle="Value" prompt="Enter an integer." sqref="D2:D3">

--- a/examples/sbtab/hynne.xlsx
+++ b/examples/sbtab/hynne.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="365">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-27 01:05:30'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-04-27 01:05:30' objTablesVersion='0.0.9' document='BIOMD0000000061'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='1.0.0' date='2020-05-29 00:19:25'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-05-29 00:19:25' objTablesVersion='1.0.0' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!ID</t>
@@ -6360,7 +6360,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-04-27 01:05:30' objTablesVersion='0.0.9' document='BIOMD0000000061'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-05-29 00:19:25' objTablesVersion='1.0.0' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -6570,34 +6570,34 @@
     <t>GlcX0</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-04-27 01:05:30' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-04-27 01:05:30' objTablesVersion='0.0.9' document='BIOMD0000000061'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-05-29 00:19:25' objTablesVersion='1.0.0' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Description</t>
@@ -7035,13 +7035,13 @@
     <t>k24r</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-04-27 01:05:31' objTablesVersion='0.0.9' document='BIOMD0000000061'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-05-29 00:19:25' objTablesVersion='1.0.0' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!ReactionFormula</t>
@@ -7404,37 +7404,37 @@
     <t>2.7.4.3</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-04-27 01:05:31' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-05-29 00:19:25' objTablesVersion='1.0.0'</t>
   </si>
 </sst>
 </file>
